--- a/public/salarydata.xlsx
+++ b/public/salarydata.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeshakely/Projects/nextjs-flask/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FEB73524-12C9-7444-9727-99ECC5A2D931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AE370BFC-0EC8-4D4A-AB41-AD233A8A75C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="salarydata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>Region</t>
   </si>
@@ -37,9 +50,6 @@
     <t>Experience at Time</t>
   </si>
   <si>
-    <t>Higher End</t>
-  </si>
-  <si>
     <t>Additional Compensation</t>
   </si>
   <si>
@@ -128,14 +138,24 @@
   </si>
   <si>
     <t>ZipRecruiter</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>Total Years of Exp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -570,8 +590,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -614,55 +635,83 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
@@ -680,17 +729,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H18" totalsRowShown="0">
-  <autoFilter ref="A1:H18"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I19" totalsRowCount="1">
+  <autoFilter ref="A1:I18"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Region"/>
     <tableColumn id="2" name="Job Type"/>
     <tableColumn id="3" name="Source"/>
     <tableColumn id="4" name="Company"/>
     <tableColumn id="5" name="Experience at Time"/>
-    <tableColumn id="6" name="Higher End" dataDxfId="0"/>
+    <tableColumn id="6" name="Salary" dataDxfId="3" totalsRowDxfId="1"/>
     <tableColumn id="7" name="Additional Compensation"/>
     <tableColumn id="8" name="Bonus"/>
+    <tableColumn id="9" name="Weights" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="0" dataCellStyle="Currency" totalsRowCellStyle="Currency">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E2)*0.06)))</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(Table1[Weights])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -993,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="A2:H18"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,9 +1061,11 @@
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,27 +1082,33 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -1056,24 +1117,32 @@
         <v>157225</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E2)*0.06)))</f>
+        <v>157225</v>
+      </c>
+      <c r="K2">
+        <f ca="1">(YEAR(TODAY()) - YEAR("5/1/2013"))*12 + MONTH(TODAY()) - MONTH("5/1/2013") / 12</f>
+        <v>131.58333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -1082,24 +1151,28 @@
         <v>109730</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E3)*0.06)))</f>
+        <v>109730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -1108,24 +1181,28 @@
         <v>76271</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E4)*0.06)))</f>
+        <v>76271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -1139,19 +1216,23 @@
       <c r="H5" s="1">
         <v>12250</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E5)*0.06)))</f>
+        <v>145314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -1160,24 +1241,28 @@
         <v>87656</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E6)*0.06)))</f>
+        <v>87656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -1186,24 +1271,28 @@
         <v>86119</v>
       </c>
       <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E7)*0.06)))</f>
+        <v>86119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -1212,21 +1301,25 @@
         <v>133408</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E8)*0.06)))</f>
+        <v>133408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1238,21 +1331,25 @@
         <v>10000</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E9)*0.06)))</f>
+        <v>193440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1266,19 +1363,23 @@
       <c r="H10" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E10)*0.06)))</f>
+        <v>202800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1287,24 +1388,28 @@
         <v>124000</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E11)*0.06)))</f>
+        <v>131440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1318,19 +1423,23 @@
       <c r="H12" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E12)*0.06)))</f>
+        <v>142600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -1344,19 +1453,23 @@
       <c r="H13" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E13)*0.06)))</f>
+        <v>123200.00000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1370,19 +1483,23 @@
       <c r="H14" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E14)*0.06)))</f>
+        <v>115599.99999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -1391,24 +1508,28 @@
         <v>140900</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E15)*0.06)))</f>
+        <v>140900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -1417,24 +1538,28 @@
         <v>131500</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E16)*0.06)))</f>
+        <v>131500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>-1</v>
@@ -1443,24 +1568,28 @@
         <v>124000</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E17)*0.06)))</f>
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -1473,6 +1602,17 @@
       </c>
       <c r="H18" s="1">
         <v>23297</v>
+      </c>
+      <c r="I18" s="2">
+        <f>IF(Table1[[#This Row],[Experience at Time]]=-1,Table1[[#This Row],[Salary]],Table1[[#This Row],[Salary]]*(1+((11-$E18)*0.06)))</f>
+        <v>143500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
+      <c r="I19" s="3">
+        <f>AVERAGE(Table1[Weights])</f>
+        <v>132041.35294117648</v>
       </c>
     </row>
   </sheetData>
